--- a/assets/boom/doc_策划/亡者荣耀装备.xlsx
+++ b/assets/boom/doc_策划/亡者荣耀装备.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="9440" yWindow="1040" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -700,6 +700,204 @@
   </si>
   <si>
     <t>（将召唤师技能惩罚替换为寒冰惩戒）唯一被动-打野：增加30%对野怪的伤害，击杀野怪获得经验提升30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成配方</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,21,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,39,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,39,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,39,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,7 +1690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1595,6 +1793,42 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1879,152 +2113,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="4" max="4" width="99" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="121" customWidth="1"/>
+    <col min="6" max="6" width="99" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="13.5" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="86"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3">
         <v>1</v>
       </c>
@@ -2043,1380 +2279,1800 @@
       <c r="W2" s="3">
         <v>1</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="4">
+      <c r="X2" s="3">
         <v>1</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4">
+        <v>1</v>
+      </c>
       <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10">
+      <c r="C3" s="10">
         <v>250</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="E3" s="87"/>
+      <c r="I3" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12">
+      <c r="C4" s="12">
         <v>290</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="R4" s="12">
+      <c r="E4" s="88"/>
+      <c r="T4" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="12">
+      <c r="C5" s="12">
         <v>320</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="T5" s="12">
+      <c r="E5" s="88"/>
+      <c r="V5" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="14" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:30" s="14" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14">
+      <c r="C6" s="14">
         <v>410</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>4</v>
       </c>
-      <c r="G6" s="14">
+      <c r="E6" s="89"/>
+      <c r="I6" s="14">
         <v>10</v>
       </c>
-      <c r="U6" s="14">
+      <c r="W6" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:30" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16">
+      <c r="C7" s="16">
         <v>910</v>
       </c>
-      <c r="C7" s="16">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="E7" s="90">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="6">
         <v>790</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G8" s="6">
         <v>300</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="6">
         <v>890</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="M9" s="6">
+      <c r="E9" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="6">
         <v>5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>15</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="6">
         <v>1230</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>45</v>
       </c>
-      <c r="W10" s="6">
+      <c r="Y10" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="6">
         <v>1280</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="91">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6">
+      <c r="I11" s="6">
         <v>75</v>
       </c>
-      <c r="J11" s="6">
+      <c r="L11" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="6">
         <v>1590</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>50</v>
       </c>
-      <c r="R12" s="6">
+      <c r="T12" s="6">
         <v>10</v>
       </c>
-      <c r="U12" s="6">
+      <c r="W12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="6">
         <v>1530</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="91">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <v>50</v>
       </c>
-      <c r="W13" s="6">
+      <c r="Y13" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14" s="8">
         <v>1780</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>70</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="8">
+      <c r="G14" s="8">
         <v>1200</v>
       </c>
-      <c r="G14" s="8">
+      <c r="I14" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="18" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:30" s="18" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="18">
+      <c r="C15" s="18">
         <v>1230</v>
       </c>
-      <c r="C15" s="18">
+      <c r="D15" s="18">
         <v>12</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="18">
+      <c r="I15" s="18">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="20">
+      <c r="C16" s="20">
         <v>1740</v>
       </c>
-      <c r="C16" s="20">
+      <c r="D16" s="20">
         <v>13</v>
       </c>
-      <c r="G16" s="20">
+      <c r="E16" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="20">
         <v>100</v>
       </c>
-      <c r="U16" s="20">
+      <c r="W16" s="20">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="20">
+      <c r="C17" s="20">
         <v>2140</v>
       </c>
-      <c r="C17" s="20">
+      <c r="D17" s="20">
         <v>14</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="20">
+      <c r="I17" s="20">
         <v>100</v>
       </c>
-      <c r="S17" s="20">
+      <c r="U17" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:29" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20">
+      <c r="C18" s="20">
         <v>2510</v>
       </c>
-      <c r="C18" s="20">
+      <c r="D18" s="20">
         <v>15</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="20">
+      <c r="G18" s="20">
         <v>300</v>
       </c>
-      <c r="F18" s="20">
+      <c r="H18" s="20">
         <v>400</v>
       </c>
-      <c r="G18" s="20">
+      <c r="I18" s="20">
         <v>45</v>
       </c>
-      <c r="H18" s="20">
+      <c r="J18" s="20">
         <v>60</v>
       </c>
-      <c r="M18" s="20">
+      <c r="O18" s="20">
         <v>5</v>
       </c>
-      <c r="R18" s="20">
+      <c r="T18" s="20">
         <v>15</v>
       </c>
-      <c r="S18" s="20">
+      <c r="U18" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="20">
+      <c r="C19" s="20">
         <v>1840</v>
       </c>
-      <c r="C19" s="20">
+      <c r="D19" s="20">
         <v>16</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="20">
+      <c r="O19" s="20">
         <v>8</v>
       </c>
-      <c r="R19" s="20">
+      <c r="T19" s="20">
         <v>30</v>
       </c>
-      <c r="S19" s="20">
+      <c r="U19" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="20">
+      <c r="C20" s="20">
         <v>2070</v>
       </c>
-      <c r="C20" s="20">
+      <c r="D20" s="20">
         <v>17</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="R20" s="20">
+      <c r="T20" s="20">
         <v>40</v>
       </c>
-      <c r="S20" s="20">
+      <c r="U20" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:29" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="20">
+      <c r="C21" s="20">
         <v>2090</v>
       </c>
-      <c r="C21" s="20">
+      <c r="D21" s="20">
         <v>18</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="20">
+      <c r="G21" s="20">
         <v>400</v>
       </c>
-      <c r="G21" s="20">
+      <c r="I21" s="20">
         <v>70</v>
       </c>
-      <c r="W21" s="20">
+      <c r="Y21" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="23" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:29" s="23" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="23">
+      <c r="C22" s="23">
         <v>2950</v>
       </c>
-      <c r="C22" s="23">
+      <c r="D22" s="23">
         <v>19</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="23">
+      <c r="I22" s="23">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="25" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:29" s="25" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="25">
+      <c r="C23" s="25">
         <v>300</v>
       </c>
-      <c r="C23" s="25">
+      <c r="D23" s="25">
         <v>20</v>
       </c>
-      <c r="H23" s="25">
+      <c r="E23" s="96"/>
+      <c r="J23" s="25">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="26">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="27">
+      <c r="C24" s="27">
         <v>220</v>
       </c>
-      <c r="C24" s="27">
+      <c r="D24" s="27">
         <v>21</v>
       </c>
-      <c r="F24" s="27">
+      <c r="E24" s="97"/>
+      <c r="H24" s="27">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
+        <v>22</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="27">
+      <c r="C25" s="27">
         <v>120</v>
       </c>
-      <c r="C25" s="27">
+      <c r="D25" s="27">
         <v>22</v>
       </c>
-      <c r="AA25" s="27">
+      <c r="E25" s="97"/>
+      <c r="AC25" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:29" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="29">
+      <c r="C26" s="29">
         <v>500</v>
       </c>
-      <c r="C26" s="29">
+      <c r="D26" s="29">
         <v>23</v>
       </c>
-      <c r="H26" s="29">
+      <c r="E26" s="98"/>
+      <c r="J26" s="29">
         <v>20</v>
       </c>
-      <c r="W26" s="29">
+      <c r="Y26" s="29">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="31" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:29" s="31" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30">
+        <v>24</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="31">
+      <c r="C27" s="31">
         <v>820</v>
       </c>
-      <c r="C27" s="31">
+      <c r="D27" s="31">
         <v>24</v>
       </c>
-      <c r="H27" s="31">
+      <c r="E27" s="99">
+        <v>20</v>
+      </c>
+      <c r="J27" s="31">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32">
+        <v>25</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="33">
+      <c r="C28" s="33">
         <v>1240</v>
       </c>
-      <c r="C28" s="33">
+      <c r="D28" s="33">
         <v>25</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="E28" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="33">
+      <c r="J28" s="33">
         <v>75</v>
       </c>
-      <c r="W28" s="33">
+      <c r="Y28" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:29" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>26</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="33">
+      <c r="C29" s="33">
         <v>780</v>
       </c>
-      <c r="C29" s="33">
+      <c r="D29" s="33">
         <v>26</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="E29" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="33">
+      <c r="H29" s="33">
         <v>400</v>
       </c>
-      <c r="H29" s="33">
+      <c r="J29" s="33">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32">
+        <v>27</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="33">
+      <c r="C30" s="33">
         <v>1020</v>
       </c>
-      <c r="C30" s="33">
+      <c r="D30" s="33">
         <v>27</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="E30" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="33">
+      <c r="G30" s="33">
         <v>300</v>
       </c>
-      <c r="H30" s="33">
+      <c r="J30" s="33">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32" t="s">
+    <row r="31" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="32">
+        <v>28</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="33">
+      <c r="C31" s="33">
         <v>720</v>
       </c>
-      <c r="C31" s="33">
+      <c r="D31" s="33">
         <v>28</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="E31" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="33">
+      <c r="G31" s="33">
         <v>400</v>
       </c>
-      <c r="F31" s="33">
+      <c r="H31" s="33">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="33">
+      <c r="C32" s="33">
         <v>1640</v>
       </c>
-      <c r="C32" s="33">
+      <c r="D32" s="33">
         <v>29</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="E32" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="33">
+      <c r="J32" s="33">
         <v>30</v>
       </c>
-      <c r="J32" s="33">
+      <c r="L32" s="33">
         <v>90</v>
       </c>
-      <c r="W32" s="33">
+      <c r="Y32" s="33">
         <v>20</v>
       </c>
-      <c r="AA32" s="33">
+      <c r="AC32" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
+    <row r="33" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32">
+        <v>30</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="33">
+      <c r="C33" s="33">
         <v>1390</v>
       </c>
-      <c r="C33" s="33">
+      <c r="D33" s="33">
         <v>30</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="E33" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="33">
+      <c r="H33" s="33">
         <v>600</v>
       </c>
-      <c r="H33" s="33">
+      <c r="J33" s="33">
         <v>100</v>
       </c>
-      <c r="AA33" s="33">
+      <c r="AC33" s="33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="36" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:29" s="36" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35">
+        <v>68</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="36">
+      <c r="C34" s="36">
         <v>1960</v>
       </c>
-      <c r="C34" s="36">
+      <c r="D34" s="36">
         <v>68</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="E34" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="36">
+      <c r="J34" s="36">
         <v>100</v>
       </c>
-      <c r="R34" s="36">
+      <c r="T34" s="36">
         <v>20</v>
       </c>
-      <c r="W34" s="36">
+      <c r="Y34" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="38" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:29" s="38" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="37">
+        <v>31</v>
+      </c>
+      <c r="B35" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="38">
+      <c r="C35" s="38">
         <v>1100</v>
       </c>
-      <c r="C35" s="38">
+      <c r="D35" s="38">
         <v>31</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="E35" s="103">
+        <v>24</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="38">
+      <c r="J35" s="38">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="39">
+        <v>32</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="40">
+      <c r="C36" s="40">
         <v>2300</v>
       </c>
-      <c r="C36" s="40">
+      <c r="D36" s="40">
         <v>32</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="40">
+      <c r="J36" s="40">
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
+    <row r="37" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="39">
+        <v>33</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="40">
+      <c r="C37" s="40">
         <v>2100</v>
       </c>
-      <c r="C37" s="40">
+      <c r="D37" s="40">
         <v>33</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E37" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="40">
+      <c r="J37" s="40">
         <v>240</v>
       </c>
-      <c r="M37" s="40">
+      <c r="O37" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="39">
+        <v>34</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="40">
+      <c r="C38" s="40">
         <v>2100</v>
       </c>
-      <c r="C38" s="40">
+      <c r="D38" s="40">
         <v>34</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="E38" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="40">
+      <c r="G38" s="40">
         <v>1000</v>
       </c>
-      <c r="H38" s="40">
+      <c r="J38" s="40">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:29" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A39" s="39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="40">
+      <c r="C39" s="40">
         <v>2040</v>
       </c>
-      <c r="C39" s="40">
+      <c r="D39" s="40">
         <v>35</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="E39" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="40">
+      <c r="G39" s="40">
         <v>600</v>
       </c>
-      <c r="H39" s="40">
+      <c r="J39" s="40">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
+    <row r="40" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="39">
+        <v>36</v>
+      </c>
+      <c r="B40" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="40">
+      <c r="C40" s="40">
         <v>2120</v>
       </c>
-      <c r="C40" s="40">
+      <c r="D40" s="40">
         <v>36</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="E40" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="40">
+      <c r="H40" s="40">
         <v>400</v>
       </c>
-      <c r="H40" s="40">
+      <c r="J40" s="40">
         <v>180</v>
       </c>
-      <c r="M40" s="40">
+      <c r="O40" s="40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
+    <row r="41" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="39">
+        <v>37</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="40">
+      <c r="C41" s="40">
         <v>1880</v>
       </c>
-      <c r="C41" s="40">
+      <c r="D41" s="40">
         <v>37</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="E41" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="40">
+      <c r="G41" s="40">
         <v>600</v>
       </c>
-      <c r="F41" s="40">
+      <c r="H41" s="40">
         <v>600</v>
       </c>
-      <c r="H41" s="40">
+      <c r="J41" s="40">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="43" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
+    <row r="42" spans="1:29" s="43" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="43">
+      <c r="C42" s="43">
         <v>2990</v>
       </c>
-      <c r="C42" s="43">
+      <c r="D42" s="43">
         <v>38</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="E42" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="43">
+      <c r="J42" s="43">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="45" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:29" s="45" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="44">
+        <v>39</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="45">
+      <c r="C43" s="45">
         <v>300</v>
       </c>
-      <c r="C43" s="45">
+      <c r="D43" s="45">
         <v>39</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="106"/>
+      <c r="G43" s="45">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:29" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="46">
+        <v>40</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="47">
+      <c r="C44" s="47">
         <v>220</v>
       </c>
-      <c r="C44" s="47">
+      <c r="D44" s="47">
         <v>40</v>
       </c>
-      <c r="I44" s="47">
+      <c r="E44" s="107"/>
+      <c r="K44" s="47">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:29" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="46">
+        <v>41</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="47">
+      <c r="C45" s="47">
         <v>220</v>
       </c>
-      <c r="C45" s="47">
+      <c r="D45" s="47">
         <v>41</v>
       </c>
-      <c r="J45" s="47">
+      <c r="E45" s="107"/>
+      <c r="L45" s="47">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="49" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:29" s="49" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="49">
+      <c r="C46" s="49">
         <v>140</v>
       </c>
-      <c r="C46" s="49">
+      <c r="D46" s="49">
         <v>42</v>
       </c>
-      <c r="AA46" s="49">
+      <c r="E46" s="108"/>
+      <c r="AC46" s="49">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="51" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="50" t="s">
+    <row r="47" spans="1:29" s="51" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="50">
+        <v>43</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="51">
+      <c r="C47" s="51">
         <v>900</v>
       </c>
-      <c r="C47" s="51">
+      <c r="D47" s="51">
         <v>43</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="51">
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="52" t="s">
+    <row r="48" spans="1:29" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="52">
+        <v>44</v>
+      </c>
+      <c r="B48" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="53">
+      <c r="C48" s="53">
         <v>900</v>
       </c>
-      <c r="C48" s="53">
+      <c r="D48" s="53">
         <v>44</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="E48" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="53">
+      <c r="G48" s="53">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52" t="s">
+    <row r="49" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="52">
+        <v>45</v>
+      </c>
+      <c r="B49" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="53">
+      <c r="C49" s="53">
         <v>1020</v>
       </c>
-      <c r="C49" s="53">
+      <c r="D49" s="53">
         <v>45</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="E49" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="53">
+      <c r="G49" s="53">
         <v>700</v>
       </c>
-      <c r="J49" s="53">
+      <c r="L49" s="53">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="52" t="s">
+    <row r="50" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="52">
+        <v>46</v>
+      </c>
+      <c r="B50" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="53">
+      <c r="C50" s="53">
         <v>900</v>
       </c>
-      <c r="C50" s="53">
+      <c r="D50" s="53">
         <v>46</v>
       </c>
-      <c r="F50" s="53">
+      <c r="E50" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="53">
         <v>400</v>
       </c>
-      <c r="I50" s="53">
+      <c r="K50" s="53">
         <v>110</v>
       </c>
-      <c r="W50" s="53">
+      <c r="Y50" s="53">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52" t="s">
+    <row r="51" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="52">
+        <v>47</v>
+      </c>
+      <c r="B51" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="53">
+      <c r="C51" s="53">
         <v>730</v>
       </c>
-      <c r="C51" s="53">
+      <c r="D51" s="53">
         <v>47</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="E51" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="53">
+      <c r="K51" s="53">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="52" t="s">
+    <row r="52" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="53">
+      <c r="C52" s="53">
         <v>1490</v>
       </c>
-      <c r="C52" s="53">
+      <c r="D52" s="53">
         <v>48</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="E52" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="53">
+      <c r="G52" s="53">
         <v>1000</v>
       </c>
-      <c r="Z52" s="53">
+      <c r="AB52" s="53">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52" t="s">
+    <row r="53" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="52">
+        <v>49</v>
+      </c>
+      <c r="B53" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="53">
+      <c r="C53" s="53">
         <v>1270</v>
       </c>
-      <c r="C53" s="53">
+      <c r="D53" s="53">
         <v>49</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="E53" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="K53" s="53">
+      <c r="M53" s="53">
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="55" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+    <row r="54" spans="1:28" s="55" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="54">
+        <v>69</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="55">
+      <c r="C54" s="55">
         <v>2120</v>
       </c>
-      <c r="C54" s="55">
+      <c r="D54" s="55">
         <v>69</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="E54" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="55">
+      <c r="G54" s="55">
         <v>1000</v>
       </c>
-      <c r="G54" s="55">
+      <c r="I54" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56" t="s">
+    <row r="55" spans="1:28" s="57" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="56">
+        <v>50</v>
+      </c>
+      <c r="B55" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="57">
+      <c r="C55" s="57">
         <v>1640</v>
       </c>
-      <c r="C55" s="57">
+      <c r="D55" s="57">
         <v>50</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="E55" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="57">
+      <c r="G55" s="57">
         <v>1000</v>
       </c>
-      <c r="I55" s="57">
+      <c r="K55" s="57">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="s">
+    <row r="56" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="58">
+        <v>51</v>
+      </c>
+      <c r="B56" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="59">
+      <c r="C56" s="59">
         <v>2370</v>
       </c>
-      <c r="C56" s="59">
+      <c r="D56" s="59">
         <v>51</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="E56" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="59">
+      <c r="G56" s="59">
         <v>2000</v>
       </c>
-      <c r="Z56" s="59">
+      <c r="AB56" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="58" t="s">
+    <row r="57" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="58">
+        <v>52</v>
+      </c>
+      <c r="B57" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="59">
+      <c r="C57" s="59">
         <v>2180</v>
       </c>
-      <c r="C57" s="59">
+      <c r="D57" s="59">
         <v>52</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="E57" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="59">
+      <c r="G57" s="59">
         <v>1200</v>
       </c>
-      <c r="I57" s="59">
+      <c r="K57" s="59">
         <v>270</v>
       </c>
-      <c r="Z57" s="59">
+      <c r="AB57" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A58" s="58" t="s">
+    <row r="58" spans="1:28" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A58" s="58">
+        <v>53</v>
+      </c>
+      <c r="B58" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="59">
+      <c r="C58" s="59">
         <v>2100</v>
       </c>
-      <c r="C58" s="59">
+      <c r="D58" s="59">
         <v>53</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="E58" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="59">
+      <c r="G58" s="59">
         <v>1100</v>
       </c>
-      <c r="J58" s="59">
+      <c r="L58" s="59">
         <v>180</v>
       </c>
-      <c r="W58" s="59">
+      <c r="Y58" s="59">
         <v>10</v>
       </c>
-      <c r="Z58" s="59">
+      <c r="AB58" s="59">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="58" t="s">
+    <row r="59" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="58">
+        <v>54</v>
+      </c>
+      <c r="B59" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="59">
+      <c r="C59" s="59">
         <v>1870</v>
       </c>
-      <c r="C59" s="59">
+      <c r="D59" s="59">
         <v>54</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="E59" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="F59" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="59">
+      <c r="G59" s="59">
         <v>500</v>
       </c>
-      <c r="J59" s="59">
+      <c r="L59" s="59">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58" t="s">
+    <row r="60" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="58">
+        <v>55</v>
+      </c>
+      <c r="B60" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="59">
+      <c r="C60" s="59">
         <v>2100</v>
       </c>
-      <c r="C60" s="59">
+      <c r="D60" s="59">
         <v>55</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="E60" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="59">
+      <c r="H60" s="59">
         <v>500</v>
       </c>
-      <c r="I60" s="59">
+      <c r="K60" s="59">
         <v>360</v>
       </c>
-      <c r="W60" s="59">
+      <c r="Y60" s="59">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="58" t="s">
+    <row r="61" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="58">
+        <v>56</v>
+      </c>
+      <c r="B61" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="59">
+      <c r="C61" s="59">
         <v>2080</v>
       </c>
-      <c r="C61" s="59">
+      <c r="D61" s="59">
         <v>56</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="E61" s="113"/>
+      <c r="F61" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="59">
+      <c r="G61" s="59">
         <v>800</v>
       </c>
-      <c r="I61" s="59">
+      <c r="K61" s="59">
         <v>140</v>
       </c>
-      <c r="J61" s="59">
+      <c r="L61" s="59">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="61" t="s">
+    <row r="62" spans="1:28" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="61">
+        <v>57</v>
+      </c>
+      <c r="B62" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="62">
+      <c r="C62" s="62">
         <v>1820</v>
       </c>
-      <c r="C62" s="62">
+      <c r="D62" s="62">
         <v>57</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="E62" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="62">
+      <c r="G62" s="62">
         <v>1000</v>
       </c>
-      <c r="G62" s="62">
+      <c r="I62" s="62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="63" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
+    <row r="63" spans="1:28" s="63" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="63">
+        <v>58</v>
+      </c>
+      <c r="B63" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="63">
+      <c r="C63" s="63">
         <v>250</v>
       </c>
-      <c r="C63" s="63">
+      <c r="D63" s="63">
         <v>58</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="E63" s="115"/>
+      <c r="F63" s="63" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="65" customFormat="1" ht="31" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="64" t="s">
+    <row r="64" spans="1:28" s="65" customFormat="1" ht="31" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="64">
+        <v>59</v>
+      </c>
+      <c r="B64" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="65">
+      <c r="C64" s="65">
         <v>690</v>
       </c>
-      <c r="C64" s="65">
+      <c r="D64" s="65">
         <v>59</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="E64" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="I64" s="65">
+      <c r="K64" s="65">
         <v>110</v>
       </c>
-      <c r="J64" s="65">
+      <c r="L64" s="65">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A65" s="67" t="s">
+    <row r="65" spans="1:25" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A65" s="67">
+        <v>60</v>
+      </c>
+      <c r="B65" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="68">
+      <c r="C65" s="68">
         <v>690</v>
       </c>
-      <c r="C65" s="68">
+      <c r="D65" s="68">
         <v>60</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="E65" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="69" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="67" t="s">
+    <row r="66" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="67">
+        <v>61</v>
+      </c>
+      <c r="B66" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="68">
+      <c r="C66" s="68">
         <v>710</v>
       </c>
-      <c r="C66" s="68">
+      <c r="D66" s="68">
         <v>61</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="E66" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="W66" s="68">
+      <c r="Y66" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A67" s="67" t="s">
+    <row r="67" spans="1:25" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A67" s="67">
+        <v>62</v>
+      </c>
+      <c r="B67" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="68">
+      <c r="C67" s="68">
         <v>770</v>
       </c>
-      <c r="C67" s="68">
+      <c r="D67" s="68">
         <v>62</v>
       </c>
-      <c r="D67" s="69" t="s">
+      <c r="E67" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="67" t="s">
+    <row r="68" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="67">
+        <v>63</v>
+      </c>
+      <c r="B68" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="68">
+      <c r="C68" s="68">
         <v>710</v>
       </c>
-      <c r="C68" s="68">
+      <c r="D68" s="68">
         <v>63</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="E68" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="R68" s="68">
+      <c r="T68" s="68">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="71" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="70" t="s">
+    <row r="69" spans="1:25" s="71" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="67">
+        <v>71</v>
+      </c>
+      <c r="B69" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="71">
+      <c r="C69" s="71">
         <v>630</v>
       </c>
-      <c r="C69" s="71">
+      <c r="D69" s="71">
         <v>71</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="E69" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="74" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+    <row r="70" spans="1:25" s="74" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
+        <v>64</v>
+      </c>
+      <c r="B70" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="74">
+      <c r="C70" s="74">
         <v>250</v>
       </c>
-      <c r="C70" s="74">
+      <c r="D70" s="74">
         <v>64</v>
       </c>
-      <c r="D70" s="75" t="s">
+      <c r="E70" s="119"/>
+      <c r="F70" s="75" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="77" customFormat="1" ht="61" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="76" t="s">
+    <row r="71" spans="1:25" s="77" customFormat="1" ht="31" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="76">
+        <v>65</v>
+      </c>
+      <c r="B71" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="77">
+      <c r="C71" s="77">
         <v>1010</v>
       </c>
-      <c r="C71" s="77">
+      <c r="D71" s="77">
         <v>65</v>
       </c>
-      <c r="D71" s="78" t="s">
+      <c r="E71" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="77">
+      <c r="H71" s="77">
         <v>220</v>
       </c>
-      <c r="H71" s="77">
+      <c r="J71" s="77">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A72" s="79" t="s">
+    <row r="72" spans="1:25" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A72" s="79">
+        <v>66</v>
+      </c>
+      <c r="B72" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="80">
+      <c r="C72" s="80">
         <v>1020</v>
       </c>
-      <c r="C72" s="80">
+      <c r="D72" s="80">
         <v>66</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="E72" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="80">
+      <c r="G72" s="80">
         <v>420</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="79" t="s">
+    <row r="73" spans="1:25" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="79">
+        <v>67</v>
+      </c>
+      <c r="B73" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="80">
+      <c r="C73" s="80">
         <v>1020</v>
       </c>
-      <c r="C73" s="80">
+      <c r="D73" s="80">
         <v>67</v>
       </c>
-      <c r="D73" s="80" t="s">
+      <c r="E73" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="80">
+      <c r="I73" s="80">
         <v>30</v>
       </c>
-      <c r="R73" s="80">
+      <c r="T73" s="80">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="82" t="s">
+    <row r="74" spans="1:25" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="82">
+        <v>72</v>
+      </c>
+      <c r="B74" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="83">
+      <c r="C74" s="83">
         <v>500</v>
       </c>
-      <c r="C74" s="83">
+      <c r="D74" s="83">
         <v>72</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="E74" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="82" t="s">
+    <row r="75" spans="1:25" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="82">
+        <v>73</v>
+      </c>
+      <c r="B75" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="83">
+      <c r="C75" s="83">
         <v>500</v>
       </c>
-      <c r="C75" s="83">
+      <c r="D75" s="83">
         <v>73</v>
       </c>
-      <c r="D75" s="83" t="s">
+      <c r="E75" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="85" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="84" t="s">
+    <row r="76" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="84">
+        <v>74</v>
+      </c>
+      <c r="B76" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="83">
+      <c r="C76" s="83">
         <v>500</v>
       </c>
-      <c r="C76" s="83">
+      <c r="D76" s="83">
         <v>74</v>
       </c>
-      <c r="D76" s="85" t="s">
+      <c r="E76" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="85" t="s">
         <v>156</v>
       </c>
     </row>
